--- a/pred_ohlcv/54_21/2019-10-25 PPT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-25 PPT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>5937.3475</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>5937.3475</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>4299.0838</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>11191.6599</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>18192.6599</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -756,7 +756,7 @@
         <v>10934.3999</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -860,7 +860,7 @@
         <v>10170.5154</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>9933.015499999998</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>9933.015499999998</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>13524.9882</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>13524.9882</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>14552.9882</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>15126.7302</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>14494.7302</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>14494.7302</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>14125.0759</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>14125.0759</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>15499.0758</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>14352.2851</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>14352.2851</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>14352.2851</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>14352.2851</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>14352.2851</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>14352.2851</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>12641.0565</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>16560.0564</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>15990.8799</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>15517.6329</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>20636.3657</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>13069.3875</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>13069.3875</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>12969.3875</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>18215.0887</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>17645.6127</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>19270.3815</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>18690.3505</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>18154.23350000001</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>18187.23350000001</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>17621.91180000001</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>18158.0288</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>18808.58980000001</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>18308.0288</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>14530.358</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>14530.358</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>15065.267</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>14530.7718</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>13375.5928</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>14992.7399</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>14937.9398</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>19757.97651828</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>17928.08751828</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>18340.28881828001</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>18039.39601828</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>19612.39601828</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>19612.39601828</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>19612.39601828</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>19612.39601828</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>19717.56011828001</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>18351.00691828001</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>18309.95531828001</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>18309.95531828001</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>18219.95531828001</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>18773.05231828001</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>20456.05231828001</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>20456.05231828001</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>21616.62361828001</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>24704.13351828001</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>126485.57934868</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>135320.04904868</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>137596.50567249</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>137593.32147249</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>134927.26727249</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>134930.84427249</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>136200.75627249</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>136768.3037121</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>135271.3499121</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>140067.7598121</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>130955.2705121</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>130955.2705121</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>130607.3962121</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>129560.5067121</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>129599.3407121</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>128089.4745121</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>127766.4021121</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>123916.5567121</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>126415.6167121</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>126940.0498121</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>126867.0057121</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>121823.3341121</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>123556.6624120999</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>124009.6961120999</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>124606.5854120999</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>124606.5854120999</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>123178.6946120999</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>123178.6946120999</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>123178.6946120999</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>123178.6946120999</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>126761.2048121</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>127674.6664120999</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>129035.2280120999</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>129777.7342121</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>130798.1996121</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>130798.1996121</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>130382.1996121</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>130382.1996121</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>130456.6608121</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>130456.6608121</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>130456.6608121</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>130809.3269121</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>130809.3269121</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>124519.3498121</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>120429.9042121</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>116552.4102120999</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>116552.4102120999</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>112121.4213767599</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>111501.6658767599</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>111551.6658767599</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>111347.2870767599</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>111348.2870767599</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>110039.3829767599</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>95039.38297675994</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>95039.38297675994</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>113252.6062956399</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>113252.6062956399</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>113252.6062956399</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>113163.6063956399</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-25 PPT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-25 PPT ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>18192.6599</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>18192.6599</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>17065.4981</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>16772.5221</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>12648.2505</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>10450.8662</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>10934.3999</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>10934.3999</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>10884.3999</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>10170.5154</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>10170.5154</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -886,7 +886,7 @@
         <v>9933.015499999998</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>9933.015499999998</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>13524.9882</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>13524.9882</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>14552.9882</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>15126.7302</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>14494.7302</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>14494.7302</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>14125.0759</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>14125.0759</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>15499.0758</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>14352.2851</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>14352.2851</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>14352.2851</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>14352.2851</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>14352.2851</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>14352.2851</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>12641.0565</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>16560.0564</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>15990.8799</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>15517.6329</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>20636.3657</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>13069.3875</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>13069.3875</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>12969.3875</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>18215.0887</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>17645.6127</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>19270.3815</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>18690.3505</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>18154.23350000001</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>18187.23350000001</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>17621.91180000001</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>18158.0288</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>18808.58980000001</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>18308.0288</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>14530.358</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>14530.358</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>15065.267</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>14530.7718</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>13375.5928</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>14992.7399</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>14937.9398</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>19757.97651828</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>17928.08751828</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>18340.28881828001</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>18039.39601828</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>19612.39601828</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>19612.39601828</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>19612.39601828</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>19612.39601828</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>19717.56011828001</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>18351.00691828001</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>18309.95531828001</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>18309.95531828001</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>18219.95531828001</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>18773.05231828001</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>20456.05231828001</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>20456.05231828001</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>21616.62361828001</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>24704.13351828001</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>119482.98644868</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>118489.40084868</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>123381.15084868</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>119306.15084868</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>126485.57934868</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>126485.57934868</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>126485.57934868</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>135320.04904868</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>137596.50567249</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>137593.32147249</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>134927.26727249</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>134930.84427249</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>136200.75627249</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>136768.3037121</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>135271.3499121</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>140067.7598121</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>130955.2705121</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>130955.2705121</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>130607.3962121</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>129599.3407121</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>127766.4021121</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>124606.5854120999</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>113252.6062956399</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>113252.6062956399</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>113252.6062956399</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>113163.6063956399</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
